--- a/Motor Sheet.xlsx
+++ b/Motor Sheet.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21255D1E-BD7E-4228-B31F-C157427C3E65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E6D7B-45B6-4FC8-AC2B-D73E3657F792}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8676" yWindow="5436" windowWidth="22872" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centre Shaft" sheetId="1" r:id="rId1"/>
     <sheet name="Johnson" sheetId="4" r:id="rId2"/>
-    <sheet name="Servo" sheetId="2" r:id="rId3"/>
-    <sheet name="Stepper" sheetId="3" r:id="rId4"/>
+    <sheet name="Square and Planetary" sheetId="5" r:id="rId3"/>
+    <sheet name="Micro" sheetId="6" r:id="rId4"/>
+    <sheet name="Servo" sheetId="2" r:id="rId5"/>
+    <sheet name="Stepper" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
-  <si>
-    <t>Model</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="33">
   <si>
     <t>Type</t>
   </si>
@@ -53,37 +51,7 @@
     <t>Price (Rs.)</t>
   </si>
   <si>
-    <t>SKU-5703</t>
-  </si>
-  <si>
-    <t>SKU-5693</t>
-  </si>
-  <si>
-    <t>SKU-17840</t>
-  </si>
-  <si>
-    <t>SKU-5683</t>
-  </si>
-  <si>
-    <t>SKU-5673</t>
-  </si>
-  <si>
-    <t>SKU-5663</t>
-  </si>
-  <si>
     <t>4-12V range</t>
-  </si>
-  <si>
-    <t>SKU-5653</t>
-  </si>
-  <si>
-    <t>SKU-5643</t>
-  </si>
-  <si>
-    <t>SKU-2143</t>
-  </si>
-  <si>
-    <t>SKU-356205</t>
   </si>
   <si>
     <t>Online/Retail Shops</t>
@@ -162,8 +130,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -328,18 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -347,6 +311,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -355,14 +346,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -373,33 +364,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,6 +390,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,13 +424,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1333376</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -497,13 +473,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1227661</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
@@ -968,582 +944,543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="17" max="17" width="19.77734375" customWidth="1"/>
-    <col min="18" max="18" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" customWidth="1"/>
+    <col min="17" max="17" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" s="43" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="22">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>183</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="I2" s="22">
+        <v>80</v>
+      </c>
+      <c r="J2" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="K2" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L2" s="22">
+        <v>7.5</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22">
+        <v>3.7</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="4">
+        <v>500</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>157</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="4">
+        <v>300</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>157</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="4">
+        <v>200</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>157</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="4">
+        <v>150</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>157</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>183</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="4">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4">
+        <v>183</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="20"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="4">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="F9" s="4">
+        <v>183</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
         <v>7</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="E10" s="4">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4">
+        <v>183</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="20"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="6">
         <v>3</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="D11" s="6">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6">
+        <v>60</v>
+      </c>
+      <c r="F11" s="6">
+        <v>183</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="21"/>
+    </row>
+    <row r="12" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="22">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>620</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="22">
+        <v>540</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="1">
+        <v>83</v>
+      </c>
+      <c r="J12" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0.94</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="M12" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="N12" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="8">
+        <v>280</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="I13" s="12">
+        <v>89</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="3">
+        <v>5</v>
+      </c>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="20"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="8">
+        <v>130</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="12">
+        <v>89</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="20"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="8">
+        <v>60</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="I15" s="12">
+        <v>89</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="6">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>44</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="17">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>183</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="17">
-        <v>80</v>
-      </c>
-      <c r="K2" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="L2" s="17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M2" s="17">
-        <v>7.5</v>
-      </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17">
-        <v>3.7</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>500</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4">
-        <v>157</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="33"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <v>300</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>157</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="33"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4">
-        <v>200</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="G5" s="4">
-        <v>157</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="33"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4">
-        <v>150</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="G6" s="4">
-        <v>157</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="33"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <v>100</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="F7" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="G7" s="4">
-        <v>183</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="33"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4">
-        <v>60</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="F8" s="4">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4">
-        <v>183</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="33"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="G9" s="4">
-        <v>183</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="33"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4">
-        <v>7</v>
-      </c>
-      <c r="F10" s="4">
-        <v>28</v>
-      </c>
-      <c r="G10" s="4">
-        <v>183</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="33"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6">
-        <v>16</v>
-      </c>
-      <c r="F11" s="6">
-        <v>60</v>
-      </c>
-      <c r="G11" s="6">
-        <v>183</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="34"/>
-    </row>
-    <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="17">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>620</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G12" s="17">
-        <v>540</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="J12" s="1">
-        <v>83</v>
-      </c>
-      <c r="K12" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="L12" s="17">
-        <v>0.94</v>
-      </c>
-      <c r="M12" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="N12" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="O12" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="8">
-        <v>280</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="16">
-        <v>89</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="3">
-        <v>5</v>
-      </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="33"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="8">
-        <v>130</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="8">
-        <v>2</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="J14" s="16">
-        <v>89</v>
-      </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="33"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="8">
-        <v>60</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
-        <v>4</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="16">
-        <v>0.24</v>
-      </c>
-      <c r="J15" s="16">
-        <v>89</v>
-      </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="33"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6">
-        <v>16</v>
-      </c>
-      <c r="E16" s="6">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6">
-        <v>44</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="I16" s="5">
         <v>93</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="5">
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="5">
         <v>5.8</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="34"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="21"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1561,9 +1498,8 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1581,33 +1517,32 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Q2:Q11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="R2:R11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="P12:P16"/>
-    <mergeCell ref="Q12:Q16"/>
-    <mergeCell ref="R12:R16"/>
-    <mergeCell ref="N12:N16"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="G12:G16"/>
     <mergeCell ref="O2:O11"/>
-    <mergeCell ref="O12:O16"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="A2:A11"/>
     <mergeCell ref="H2:H11"/>
-    <mergeCell ref="P2:P11"/>
     <mergeCell ref="I2:I11"/>
     <mergeCell ref="J2:J11"/>
     <mergeCell ref="K2:K11"/>
     <mergeCell ref="L2:L11"/>
     <mergeCell ref="M2:M11"/>
+    <mergeCell ref="P2:P11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="Q2:Q11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="O12:O16"/>
+    <mergeCell ref="P12:P16"/>
+    <mergeCell ref="Q12:Q16"/>
+    <mergeCell ref="M12:M16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="F12:F16"/>
     <mergeCell ref="N2:N11"/>
+    <mergeCell ref="N12:N16"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="G2:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1619,74 +1554,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009D7F21-6B0F-4742-9B5C-74D498699118}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" s="43" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="22">
         <v>12</v>
       </c>
       <c r="C2" s="9">
@@ -1698,44 +1637,44 @@
       <c r="E2" s="9">
         <v>3.5</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="31">
         <v>429</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="G2" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="22">
         <v>0.9</v>
       </c>
       <c r="I2" s="2">
         <v>162</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="22">
         <v>0.6</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="22">
         <v>3</v>
       </c>
       <c r="L2" s="2">
         <v>6.4</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="22">
         <v>2.7</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="22">
         <v>3.7</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="32" t="s">
-        <v>20</v>
+      <c r="O2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="8">
         <v>500</v>
       </c>
@@ -1745,26 +1684,26 @@
       <c r="E3" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="18"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="4">
         <v>162</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="4">
         <v>6.2</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="33"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="8">
         <v>300</v>
       </c>
@@ -1774,26 +1713,26 @@
       <c r="E4" s="4">
         <v>9</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="4">
         <v>164</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="4">
         <v>6.4</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="33"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="8">
         <v>200</v>
       </c>
@@ -1803,26 +1742,26 @@
       <c r="E5" s="4">
         <v>15.6</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="18"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="8">
         <v>162</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="8">
         <v>6.2</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="33"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="8">
         <v>150</v>
       </c>
@@ -1832,26 +1771,26 @@
       <c r="E6" s="8">
         <v>15.6</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="18"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="8">
         <v>177</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="8">
         <v>6.2</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="33"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="8">
         <v>100</v>
       </c>
@@ -1861,26 +1800,26 @@
       <c r="E7" s="4">
         <v>37.6</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="18"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="8">
         <v>164</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="8">
         <v>6.2</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="33"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="8">
         <v>75</v>
       </c>
@@ -1890,26 +1829,26 @@
       <c r="E8" s="8">
         <v>30</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="18"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="8">
         <v>164</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="8">
         <v>6.5</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="33"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="8">
         <v>60</v>
       </c>
@@ -1919,26 +1858,26 @@
       <c r="E9" s="4">
         <v>30</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="18"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="8">
         <v>164</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="8">
         <v>6.5</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="33"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="8">
         <v>30</v>
       </c>
@@ -1948,28 +1887,28 @@
       <c r="E10" s="8">
         <v>37.6</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="18"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="8">
         <v>179</v>
       </c>
-      <c r="J10" s="18"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="4">
         <v>2.5</v>
       </c>
       <c r="L10" s="8">
         <v>6.8</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="33"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="20"/>
     </row>
     <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="10">
         <v>10</v>
       </c>
@@ -1979,30 +1918,30 @@
       <c r="E11" s="6">
         <v>46</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="19"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="6">
         <v>180</v>
       </c>
-      <c r="J11" s="19"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="6">
         <v>2.5</v>
       </c>
       <c r="L11" s="6">
         <v>6.8</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="34"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="17">
+      <c r="A12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="22">
         <v>12</v>
       </c>
       <c r="C12" s="9">
@@ -2014,34 +1953,46 @@
       <c r="E12" s="9">
         <v>5.2</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="31">
         <v>559</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>20</v>
+      <c r="I12" s="2">
+        <v>154</v>
+      </c>
+      <c r="J12" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="L12" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="M12" s="22">
+        <v>2.7</v>
+      </c>
+      <c r="N12" s="22">
+        <v>3.7</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="8">
         <v>300</v>
       </c>
@@ -2051,22 +2002,28 @@
       <c r="E13" s="8">
         <v>12</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="8">
+        <v>156</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L13" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="8">
         <v>200</v>
       </c>
@@ -2076,22 +2033,28 @@
       <c r="E14" s="8">
         <v>18.8</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="8">
+        <v>154</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="L14" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="20"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="8">
         <v>100</v>
       </c>
@@ -2101,22 +2064,28 @@
       <c r="E15" s="8">
         <v>25.7</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="8">
+        <v>160</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="L15" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="8">
         <v>60</v>
       </c>
@@ -2126,22 +2095,28 @@
       <c r="E16" s="8">
         <v>33.200000000000003</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="33"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="8">
+        <v>160</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="L16" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="8">
         <v>30</v>
       </c>
@@ -2151,22 +2126,28 @@
       <c r="E17" s="8">
         <v>40.799999999999997</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="33"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="8">
+        <v>169</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="L17" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="8">
         <v>20</v>
       </c>
@@ -2176,22 +2157,28 @@
       <c r="E18" s="8">
         <v>46</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="33"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="8">
+        <v>168</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="L18" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="10">
         <v>10</v>
       </c>
@@ -2201,24 +2188,30 @@
       <c r="E19" s="10">
         <v>50</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="34"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="6">
+        <v>170</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L19" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="21"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="17">
+      <c r="A20" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="22">
         <v>12</v>
       </c>
       <c r="C20" s="9">
@@ -2230,42 +2223,42 @@
       <c r="E20" s="9">
         <v>4</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="22">
         <v>659</v>
       </c>
-      <c r="G20" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="17">
+      <c r="G20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="22">
         <v>1.2</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="22">
         <v>300</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="17">
+      <c r="K20" s="22">
         <v>3</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="22">
         <v>8.4</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="22">
         <v>3.7</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="22">
         <v>3.7</v>
       </c>
-      <c r="O20" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="32" t="s">
-        <v>20</v>
+      <c r="O20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="4">
         <v>500</v>
       </c>
@@ -2275,22 +2268,22 @@
       <c r="E21" s="4">
         <v>15</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="33"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="4">
         <v>300</v>
       </c>
@@ -2300,22 +2293,22 @@
       <c r="E22" s="4">
         <v>20</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="33"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="20"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="4">
         <v>200</v>
       </c>
@@ -2325,22 +2318,22 @@
       <c r="E23" s="4">
         <v>32</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="33"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="4">
         <v>100</v>
       </c>
@@ -2350,22 +2343,22 @@
       <c r="E24" s="4">
         <v>60</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="33"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="20"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="4">
         <v>30</v>
       </c>
@@ -2375,22 +2368,22 @@
       <c r="E25" s="4">
         <v>80</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="33"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="20"/>
     </row>
     <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="40"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="6">
         <v>10</v>
       </c>
@@ -2400,24 +2393,24 @@
       <c r="E26" s="6">
         <v>100</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="34"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="21"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="17">
+      <c r="A27" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="22">
         <v>12</v>
       </c>
       <c r="C27" s="9">
@@ -2429,44 +2422,44 @@
       <c r="E27" s="9">
         <v>4</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="22">
         <v>1229</v>
       </c>
-      <c r="G27" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="35">
+      <c r="G27" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="31">
         <v>1.2</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="31">
         <v>292</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="31">
         <v>0.8</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="31">
         <v>2.15</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="22">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="22">
         <v>3.7</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="22">
         <v>5.0999999999999996</v>
       </c>
-      <c r="O27" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="32" t="s">
-        <v>20</v>
+      <c r="O27" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="8">
         <v>500</v>
       </c>
@@ -2476,22 +2469,22 @@
       <c r="E28" s="8">
         <v>8</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="33"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="20"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="8">
         <v>300</v>
       </c>
@@ -2501,22 +2494,22 @@
       <c r="E29" s="8">
         <v>12</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="33"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="20"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="8">
         <v>200</v>
       </c>
@@ -2526,22 +2519,22 @@
       <c r="E30" s="8">
         <v>20</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="33"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="20"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="8">
         <v>150</v>
       </c>
@@ -2551,22 +2544,22 @@
       <c r="E31" s="8">
         <v>24</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="33"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="20"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="8">
         <v>100</v>
       </c>
@@ -2576,22 +2569,22 @@
       <c r="E32" s="8">
         <v>40</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="33"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="20"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="8">
         <v>60</v>
       </c>
@@ -2601,22 +2594,22 @@
       <c r="E33" s="8">
         <v>60</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="33"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="20"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="8">
         <v>30</v>
       </c>
@@ -2626,22 +2619,22 @@
       <c r="E34" s="8">
         <v>125</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="33"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="20"/>
     </row>
     <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="40"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="10">
         <v>10</v>
       </c>
@@ -2651,35 +2644,42 @@
       <c r="E35" s="10">
         <v>400</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="34"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="Q27:Q35"/>
-    <mergeCell ref="P27:P35"/>
-    <mergeCell ref="H27:H35"/>
-    <mergeCell ref="I27:I35"/>
-    <mergeCell ref="J27:J35"/>
-    <mergeCell ref="K27:K35"/>
-    <mergeCell ref="L27:L35"/>
-    <mergeCell ref="M27:M35"/>
-    <mergeCell ref="N27:N35"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="F27:F35"/>
-    <mergeCell ref="G27:G35"/>
-    <mergeCell ref="O27:O35"/>
+  <mergeCells count="50">
+    <mergeCell ref="P20:P26"/>
+    <mergeCell ref="Q20:Q26"/>
+    <mergeCell ref="G20:G26"/>
+    <mergeCell ref="P12:P19"/>
+    <mergeCell ref="P2:P11"/>
+    <mergeCell ref="O2:O11"/>
+    <mergeCell ref="O12:O19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="J12:J19"/>
+    <mergeCell ref="N12:N19"/>
+    <mergeCell ref="M12:M19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="O20:O26"/>
+    <mergeCell ref="H20:H26"/>
+    <mergeCell ref="I20:I26"/>
+    <mergeCell ref="K20:K26"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="M20:M26"/>
+    <mergeCell ref="F20:F26"/>
+    <mergeCell ref="N20:N26"/>
     <mergeCell ref="A12:A19"/>
     <mergeCell ref="B12:B19"/>
     <mergeCell ref="Q12:Q19"/>
@@ -2694,24 +2694,21 @@
     <mergeCell ref="K2:K9"/>
     <mergeCell ref="M2:M11"/>
     <mergeCell ref="N2:N11"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="O20:O26"/>
-    <mergeCell ref="H20:H26"/>
-    <mergeCell ref="I20:I26"/>
-    <mergeCell ref="K20:K26"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="M20:M26"/>
-    <mergeCell ref="F20:F26"/>
-    <mergeCell ref="N20:N26"/>
     <mergeCell ref="F2:F11"/>
-    <mergeCell ref="P20:P26"/>
-    <mergeCell ref="Q20:Q26"/>
-    <mergeCell ref="G20:G26"/>
-    <mergeCell ref="P12:P19"/>
-    <mergeCell ref="P2:P11"/>
-    <mergeCell ref="O2:O11"/>
-    <mergeCell ref="O12:O19"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="F27:F35"/>
+    <mergeCell ref="G27:G35"/>
+    <mergeCell ref="O27:O35"/>
+    <mergeCell ref="Q27:Q35"/>
+    <mergeCell ref="P27:P35"/>
+    <mergeCell ref="H27:H35"/>
+    <mergeCell ref="I27:I35"/>
+    <mergeCell ref="J27:J35"/>
+    <mergeCell ref="K27:K35"/>
+    <mergeCell ref="L27:L35"/>
+    <mergeCell ref="M27:M35"/>
+    <mergeCell ref="N27:N35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2719,42 +2716,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2704A1-E2DC-4B02-B17C-64F9A7778E97}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDF6ABF-EC81-4088-A193-21EDA21328EF}">
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="6.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" s="43" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="42" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2763,42 +2788,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957E6176-762B-493B-AA7D-A363FD37069E}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC71525F-0509-4D47-B3BC-F0DA19E0B181}">
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="7.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" s="43" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2704A1-E2DC-4B02-B17C-64F9A7778E97}">
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="43" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="H1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957E6176-762B-493B-AA7D-A363FD37069E}">
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="43" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="42" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
